--- a/Team-Data/2013-14/4-16-2013-14.xlsx
+++ b/Team-Data/2013-14/4-16-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" t="n">
         <v>44</v>
       </c>
       <c r="G2" t="n">
-        <v>0.463</v>
+        <v>0.457</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -687,7 +754,7 @@
         <v>81.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L2" t="n">
         <v>9.4</v>
@@ -699,7 +766,7 @@
         <v>0.363</v>
       </c>
       <c r="O2" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P2" t="n">
         <v>21.7</v>
@@ -708,22 +775,22 @@
         <v>0.781</v>
       </c>
       <c r="R2" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S2" t="n">
         <v>31.3</v>
       </c>
       <c r="T2" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U2" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="V2" t="n">
         <v>15.3</v>
       </c>
       <c r="W2" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X2" t="n">
         <v>4</v>
@@ -738,10 +805,10 @@
         <v>20</v>
       </c>
       <c r="AB2" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -756,7 +823,7 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI2" t="n">
         <v>18</v>
@@ -768,7 +835,7 @@
         <v>13</v>
       </c>
       <c r="AL2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
         <v>2</v>
@@ -777,7 +844,7 @@
         <v>13</v>
       </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>22</v>
@@ -801,7 +868,7 @@
         <v>24</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX2" t="n">
         <v>26</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" t="n">
         <v>25</v>
       </c>
       <c r="F3" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" t="n">
-        <v>0.305</v>
+        <v>0.309</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
@@ -875,13 +942,13 @@
         <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N3" t="n">
-        <v>0.333</v>
+        <v>0.334</v>
       </c>
       <c r="O3" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P3" t="n">
         <v>20.8</v>
@@ -893,10 +960,10 @@
         <v>12</v>
       </c>
       <c r="S3" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T3" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U3" t="n">
         <v>21</v>
@@ -911,7 +978,7 @@
         <v>4.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
         <v>21.3</v>
@@ -923,7 +990,7 @@
         <v>96.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>-4.5</v>
+        <v>-4.3</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -938,7 +1005,7 @@
         <v>26</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
@@ -950,7 +1017,7 @@
         <v>28</v>
       </c>
       <c r="AL3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
         <v>18</v>
@@ -974,13 +1041,13 @@
         <v>24</v>
       </c>
       <c r="AT3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -1030,37 +1097,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" t="n">
         <v>44</v>
       </c>
       <c r="F4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" t="n">
-        <v>0.537</v>
+        <v>0.543</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J4" t="n">
         <v>77.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L4" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M4" t="n">
         <v>23.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O4" t="n">
         <v>18.4</v>
@@ -1075,10 +1142,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T4" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="U4" t="n">
         <v>20.9</v>
@@ -1102,10 +1169,10 @@
         <v>20.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1</v>
+        <v>-0.7</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -1120,16 +1187,16 @@
         <v>14</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL4" t="n">
         <v>10</v>
@@ -1147,7 +1214,7 @@
         <v>10</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
         <v>28</v>
@@ -1159,13 +1226,13 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
         <v>12</v>
       </c>
       <c r="AW4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
         <v>28</v>
@@ -1180,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="BB4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" t="n">
         <v>39</v>
       </c>
       <c r="G5" t="n">
-        <v>0.524</v>
+        <v>0.519</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
@@ -1230,10 +1297,10 @@
         <v>36.3</v>
       </c>
       <c r="J5" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K5" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L5" t="n">
         <v>6.3</v>
@@ -1242,7 +1309,7 @@
         <v>17.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O5" t="n">
         <v>18</v>
@@ -1251,16 +1318,16 @@
         <v>24.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="R5" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="S5" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T5" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U5" t="n">
         <v>21.7</v>
@@ -1278,7 +1345,7 @@
         <v>5.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA5" t="n">
         <v>20.9</v>
@@ -1287,7 +1354,7 @@
         <v>96.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1335,10 +1402,10 @@
         <v>25</v>
       </c>
       <c r="AS5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU5" t="n">
         <v>16</v>
@@ -1353,13 +1420,13 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" t="n">
         <v>48</v>
       </c>
       <c r="F6" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" t="n">
-        <v>0.585</v>
+        <v>0.593</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
@@ -1412,31 +1479,31 @@
         <v>34.7</v>
       </c>
       <c r="J6" t="n">
-        <v>80.2</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.432</v>
+        <v>0.433</v>
       </c>
       <c r="L6" t="n">
         <v>6.2</v>
       </c>
       <c r="M6" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="N6" t="n">
         <v>0.348</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P6" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="R6" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S6" t="n">
         <v>32.7</v>
@@ -1448,7 +1515,7 @@
         <v>22.7</v>
       </c>
       <c r="V6" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W6" t="n">
         <v>7.2</v>
@@ -1460,13 +1527,13 @@
         <v>6</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="AC6" t="n">
         <v>1.9</v>
@@ -1484,7 +1551,7 @@
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI6" t="n">
         <v>30</v>
@@ -1508,13 +1575,13 @@
         <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
         <v>7</v>
       </c>
       <c r="AR6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS6" t="n">
         <v>9</v>
@@ -1526,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW6" t="n">
         <v>21</v>
@@ -1541,7 +1608,7 @@
         <v>4</v>
       </c>
       <c r="BA6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB6" t="n">
         <v>30</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="n">
         <v>49</v>
       </c>
       <c r="G7" t="n">
-        <v>0.402</v>
+        <v>0.395</v>
       </c>
       <c r="H7" t="n">
         <v>48.6</v>
       </c>
       <c r="I7" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J7" t="n">
         <v>84.8</v>
       </c>
       <c r="K7" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L7" t="n">
         <v>7.1</v>
@@ -1609,37 +1676,37 @@
         <v>0.356</v>
       </c>
       <c r="O7" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P7" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q7" t="n">
         <v>0.751</v>
       </c>
       <c r="R7" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S7" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T7" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="U7" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V7" t="n">
         <v>14.2</v>
       </c>
       <c r="W7" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
         <v>3.7</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z7" t="n">
         <v>20</v>
@@ -1648,10 +1715,10 @@
         <v>19.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>98.2</v>
+        <v>98</v>
       </c>
       <c r="AC7" t="n">
-        <v>-3.3</v>
+        <v>-3.7</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -1684,7 +1751,7 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
         <v>17</v>
@@ -1705,7 +1772,7 @@
         <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" t="n">
         <v>49</v>
       </c>
       <c r="F8" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>0.598</v>
+        <v>0.605</v>
       </c>
       <c r="H8" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I8" t="n">
         <v>39.6</v>
       </c>
       <c r="J8" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.474</v>
@@ -1785,16 +1852,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.384</v>
+        <v>0.386</v>
       </c>
       <c r="O8" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P8" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="Q8" t="n">
         <v>0.795</v>
@@ -1824,10 +1891,10 @@
         <v>3.5</v>
       </c>
       <c r="Z8" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="AA8" t="n">
         <v>20</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>19.9</v>
       </c>
       <c r="AB8" t="n">
         <v>104.8</v>
@@ -1839,16 +1906,16 @@
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1884,7 +1951,7 @@
         <v>23</v>
       </c>
       <c r="AT8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU8" t="n">
         <v>6</v>
@@ -1893,7 +1960,7 @@
         <v>3</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
         <v>21</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" t="n">
         <v>36</v>
       </c>
       <c r="F9" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" t="n">
-        <v>0.439</v>
+        <v>0.444</v>
       </c>
       <c r="H9" t="n">
         <v>48.2</v>
@@ -1967,19 +2034,19 @@
         <v>8.6</v>
       </c>
       <c r="M9" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="O9" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="P9" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.726</v>
+        <v>0.724</v>
       </c>
       <c r="R9" t="n">
         <v>12.3</v>
@@ -1988,7 +2055,7 @@
         <v>33.1</v>
       </c>
       <c r="T9" t="n">
-        <v>45.4</v>
+        <v>45.5</v>
       </c>
       <c r="U9" t="n">
         <v>22.4</v>
@@ -2012,7 +2079,7 @@
         <v>21.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="AC9" t="n">
         <v>-2.1</v>
@@ -2021,19 +2088,19 @@
         <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
         <v>5</v>
@@ -2060,10 +2127,10 @@
         <v>27</v>
       </c>
       <c r="AR9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
@@ -2081,10 +2148,10 @@
         <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
         <v>7</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" t="n">
         <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" t="n">
-        <v>0.354</v>
+        <v>0.358</v>
       </c>
       <c r="H10" t="n">
         <v>48.2</v>
@@ -2143,7 +2210,7 @@
         <v>86.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L10" t="n">
         <v>6.2</v>
@@ -2152,22 +2219,22 @@
         <v>19.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.321</v>
+        <v>0.32</v>
       </c>
       <c r="O10" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P10" t="n">
         <v>25.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.67</v>
+        <v>0.671</v>
       </c>
       <c r="R10" t="n">
         <v>14.6</v>
       </c>
       <c r="S10" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T10" t="n">
         <v>45.4</v>
@@ -2188,13 +2255,13 @@
         <v>4.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA10" t="n">
         <v>20.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="AC10" t="n">
         <v>-3.7</v>
@@ -2212,13 +2279,13 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
         <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK10" t="n">
         <v>20</v>
@@ -2245,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT10" t="n">
         <v>3</v>
@@ -2257,25 +2324,25 @@
         <v>13</v>
       </c>
       <c r="AW10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX10" t="n">
         <v>13</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
         <v>12</v>
       </c>
       <c r="BA10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB10" t="n">
         <v>14</v>
       </c>
       <c r="BC10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -2304,22 +2371,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
         <v>31</v>
       </c>
       <c r="G11" t="n">
-        <v>0.622</v>
+        <v>0.617</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="J11" t="n">
         <v>85.40000000000001</v>
@@ -2328,22 +2395,22 @@
         <v>0.462</v>
       </c>
       <c r="L11" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M11" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="N11" t="n">
         <v>0.38</v>
       </c>
       <c r="O11" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P11" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.753</v>
+        <v>0.756</v>
       </c>
       <c r="R11" t="n">
         <v>10.9</v>
@@ -2370,13 +2437,13 @@
         <v>4.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>104.3</v>
+        <v>104.1</v>
       </c>
       <c r="AC11" t="n">
         <v>4.8</v>
@@ -2394,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI11" t="n">
         <v>3</v>
@@ -2406,7 +2473,7 @@
         <v>9</v>
       </c>
       <c r="AL11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
@@ -2418,13 +2485,13 @@
         <v>26</v>
       </c>
       <c r="AP11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2436,7 +2503,7 @@
         <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
@@ -2448,16 +2515,16 @@
         <v>10</v>
       </c>
       <c r="AZ11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB11" t="n">
         <v>10</v>
       </c>
       <c r="BC11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -2486,43 +2553,43 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" t="n">
         <v>54</v>
       </c>
       <c r="F12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" t="n">
-        <v>0.659</v>
+        <v>0.667</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J12" t="n">
         <v>80.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L12" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M12" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="O12" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="P12" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="Q12" t="n">
         <v>0.712</v>
@@ -2531,16 +2598,16 @@
         <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="T12" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U12" t="n">
         <v>21.4</v>
       </c>
       <c r="V12" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W12" t="n">
         <v>7.6</v>
@@ -2552,16 +2619,16 @@
         <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -2576,10 +2643,10 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ12" t="n">
         <v>26</v>
@@ -2588,7 +2655,7 @@
         <v>5</v>
       </c>
       <c r="AL12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
@@ -2627,7 +2694,7 @@
         <v>3</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>15</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" t="n">
         <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J13" t="n">
-        <v>80.2</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L13" t="n">
         <v>6.7</v>
@@ -2698,25 +2765,25 @@
         <v>18.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O13" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P13" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q13" t="n">
         <v>0.779</v>
       </c>
       <c r="R13" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S13" t="n">
         <v>34.5</v>
       </c>
       <c r="T13" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U13" t="n">
         <v>20.1</v>
@@ -2728,13 +2795,13 @@
         <v>6.7</v>
       </c>
       <c r="X13" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y13" t="n">
         <v>4.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA13" t="n">
         <v>21.9</v>
@@ -2743,7 +2810,7 @@
         <v>96.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -2758,10 +2825,10 @@
         <v>4</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ13" t="n">
         <v>28</v>
@@ -2770,19 +2837,19 @@
         <v>17</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM13" t="n">
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ13" t="n">
         <v>8</v>
@@ -2797,10 +2864,10 @@
         <v>8</v>
       </c>
       <c r="AU13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
@@ -2812,7 +2879,7 @@
         <v>14</v>
       </c>
       <c r="AZ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -2850,46 +2917,46 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" t="n">
         <v>57</v>
       </c>
       <c r="F14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" t="n">
-        <v>0.695</v>
+        <v>0.704</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J14" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L14" t="n">
         <v>8.5</v>
       </c>
       <c r="M14" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.352</v>
+        <v>0.355</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="P14" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.73</v>
+        <v>0.729</v>
       </c>
       <c r="R14" t="n">
         <v>10.5</v>
@@ -2910,22 +2977,22 @@
         <v>8.6</v>
       </c>
       <c r="X14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y14" t="n">
         <v>3.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA14" t="n">
         <v>23.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.9</v>
+        <v>108</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2940,13 +3007,13 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2982,10 +3049,10 @@
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX14" t="n">
         <v>12</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" t="n">
         <v>55</v>
       </c>
       <c r="G15" t="n">
-        <v>0.329</v>
+        <v>0.321</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J15" t="n">
-        <v>85.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="K15" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L15" t="n">
         <v>9.4</v>
@@ -3071,43 +3138,43 @@
         <v>22.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R15" t="n">
         <v>9.1</v>
       </c>
       <c r="S15" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="T15" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U15" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="V15" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W15" t="n">
         <v>7.5</v>
       </c>
       <c r="X15" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y15" t="n">
         <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA15" t="n">
         <v>19.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>103</v>
+        <v>102.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.3</v>
+        <v>-6.5</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -3131,10 +3198,10 @@
         <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM15" t="n">
         <v>7</v>
@@ -3143,7 +3210,7 @@
         <v>3</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP15" t="n">
         <v>20</v>
@@ -3179,7 +3246,7 @@
         <v>9</v>
       </c>
       <c r="BA15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB15" t="n">
         <v>11</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" t="n">
         <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>0.61</v>
+        <v>0.605</v>
       </c>
       <c r="H16" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I16" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J16" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>0.464</v>
@@ -3241,10 +3308,10 @@
         <v>4.9</v>
       </c>
       <c r="M16" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.353</v>
+        <v>0.355</v>
       </c>
       <c r="O16" t="n">
         <v>15.1</v>
@@ -3253,19 +3320,19 @@
         <v>20.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R16" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S16" t="n">
         <v>30.8</v>
       </c>
       <c r="T16" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U16" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V16" t="n">
         <v>13.7</v>
@@ -3280,13 +3347,13 @@
         <v>5</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA16" t="n">
         <v>18.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>96.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="AC16" t="n">
         <v>1.6</v>
@@ -3304,13 +3371,13 @@
         <v>9</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
         <v>30</v>
@@ -3334,10 +3401,10 @@
         <v>23</v>
       </c>
       <c r="AR16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AS16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT16" t="n">
         <v>19</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -3396,34 +3463,34 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" t="n">
         <v>54</v>
       </c>
       <c r="F17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>0.659</v>
+        <v>0.667</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J17" t="n">
         <v>76.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.501</v>
+        <v>0.502</v>
       </c>
       <c r="L17" t="n">
         <v>8.1</v>
       </c>
       <c r="M17" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="N17" t="n">
         <v>0.364</v>
@@ -3435,22 +3502,22 @@
         <v>23</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="R17" t="n">
         <v>7.6</v>
       </c>
       <c r="S17" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T17" t="n">
         <v>36.9</v>
       </c>
       <c r="U17" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W17" t="n">
         <v>8.9</v>
@@ -3468,10 +3535,10 @@
         <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.2</v>
+        <v>102.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3486,10 +3553,10 @@
         <v>5</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM17" t="n">
         <v>15</v>
@@ -3513,13 +3580,13 @@
         <v>17</v>
       </c>
       <c r="AQ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3528,7 +3595,7 @@
         <v>11</v>
       </c>
       <c r="AV17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>2</v>
@@ -3549,7 +3616,7 @@
         <v>12</v>
       </c>
       <c r="BC17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
       </c>
       <c r="F18" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" t="n">
-        <v>0.183</v>
+        <v>0.185</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
@@ -3599,16 +3666,16 @@
         <v>82.2</v>
       </c>
       <c r="K18" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L18" t="n">
         <v>6.7</v>
       </c>
       <c r="M18" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N18" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O18" t="n">
         <v>16.8</v>
@@ -3620,19 +3687,19 @@
         <v>0.747</v>
       </c>
       <c r="R18" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S18" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T18" t="n">
         <v>41.1</v>
       </c>
       <c r="U18" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V18" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W18" t="n">
         <v>6.6</v>
@@ -3641,7 +3708,7 @@
         <v>4.9</v>
       </c>
       <c r="Y18" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z18" t="n">
         <v>20.9</v>
@@ -3650,7 +3717,7 @@
         <v>20.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC18" t="n">
         <v>-8.199999999999999</v>
@@ -3668,25 +3735,25 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI18" t="n">
         <v>26</v>
       </c>
       <c r="AJ18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM18" t="n">
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
         <v>21</v>
@@ -3701,16 +3768,16 @@
         <v>8</v>
       </c>
       <c r="AS18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU18" t="n">
         <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" t="n">
         <v>40</v>
       </c>
       <c r="F19" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" t="n">
-        <v>0.488</v>
+        <v>0.494</v>
       </c>
       <c r="H19" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I19" t="n">
         <v>38.9</v>
       </c>
       <c r="J19" t="n">
-        <v>87.5</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L19" t="n">
         <v>7.3</v>
@@ -3790,13 +3857,13 @@
         <v>21.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O19" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="P19" t="n">
-        <v>28.1</v>
+        <v>27.7</v>
       </c>
       <c r="Q19" t="n">
         <v>0.778</v>
@@ -3817,25 +3884,25 @@
         <v>13.9</v>
       </c>
       <c r="W19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X19" t="n">
         <v>3.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z19" t="n">
         <v>18.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.9</v>
+        <v>106.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -3850,7 +3917,7 @@
         <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
         <v>7</v>
@@ -3892,7 +3959,7 @@
         <v>5</v>
       </c>
       <c r="AV19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW19" t="n">
         <v>3</v>
@@ -3910,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" t="n">
         <v>48</v>
       </c>
       <c r="G20" t="n">
-        <v>0.415</v>
+        <v>0.407</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3963,7 +4030,7 @@
         <v>82.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
         <v>5.9</v>
@@ -3972,16 +4039,16 @@
         <v>15.9</v>
       </c>
       <c r="N20" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="O20" t="n">
         <v>18.2</v>
       </c>
       <c r="P20" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R20" t="n">
         <v>11.4</v>
@@ -3993,7 +4060,7 @@
         <v>41.7</v>
       </c>
       <c r="U20" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V20" t="n">
         <v>13.8</v>
@@ -4002,13 +4069,13 @@
         <v>7.9</v>
       </c>
       <c r="X20" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA20" t="n">
         <v>20.3</v>
@@ -4017,7 +4084,7 @@
         <v>99.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.7</v>
+        <v>-2.8</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -4050,10 +4117,10 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP20" t="n">
         <v>12</v>
@@ -4086,10 +4153,10 @@
         <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" t="n">
         <v>45</v>
       </c>
       <c r="G21" t="n">
-        <v>0.451</v>
+        <v>0.444</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
@@ -4151,7 +4218,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="N21" t="n">
         <v>0.372</v>
@@ -4163,25 +4230,25 @@
         <v>20.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R21" t="n">
         <v>10.6</v>
       </c>
       <c r="S21" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T21" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U21" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V21" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W21" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X21" t="n">
         <v>4.5</v>
@@ -4217,10 +4284,10 @@
         <v>10</v>
       </c>
       <c r="AI21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>20</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>19</v>
       </c>
       <c r="AK21" t="n">
         <v>16</v>
@@ -4232,7 +4299,7 @@
         <v>5</v>
       </c>
       <c r="AN21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AO21" t="n">
         <v>28</v>
@@ -4253,16 +4320,16 @@
         <v>27</v>
       </c>
       <c r="AU21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV21" t="n">
         <v>2</v>
       </c>
       <c r="AW21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AX21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY21" t="n">
         <v>2</v>
@@ -4274,10 +4341,10 @@
         <v>22</v>
       </c>
       <c r="BB21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" t="n">
         <v>23</v>
       </c>
       <c r="G22" t="n">
-        <v>0.72</v>
+        <v>0.716</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4336,22 +4403,22 @@
         <v>22.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="O22" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="P22" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.806</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R22" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S22" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="T22" t="n">
         <v>44.7</v>
@@ -4363,7 +4430,7 @@
         <v>15.3</v>
       </c>
       <c r="W22" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X22" t="n">
         <v>6.1</v>
@@ -4375,13 +4442,13 @@
         <v>22.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
         <v>6</v>
@@ -4408,7 +4475,7 @@
         <v>6</v>
       </c>
       <c r="AL22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM22" t="n">
         <v>14</v>
@@ -4426,13 +4493,13 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU22" t="n">
         <v>13</v>
@@ -4441,7 +4508,7 @@
         <v>25</v>
       </c>
       <c r="AW22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4450,10 +4517,10 @@
         <v>5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB22" t="n">
         <v>5</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" t="n">
         <v>23</v>
       </c>
       <c r="F23" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G23" t="n">
-        <v>0.28</v>
+        <v>0.284</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
@@ -4506,10 +4573,10 @@
         <v>36.9</v>
       </c>
       <c r="J23" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L23" t="n">
         <v>6.9</v>
@@ -4536,13 +4603,13 @@
         <v>32.4</v>
       </c>
       <c r="T23" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U23" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V23" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W23" t="n">
         <v>7.7</v>
@@ -4551,7 +4618,7 @@
         <v>4.3</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
         <v>20.5</v>
@@ -4560,10 +4627,10 @@
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4581,7 +4648,7 @@
         <v>2</v>
       </c>
       <c r="AI23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
         <v>14</v>
@@ -4611,19 +4678,19 @@
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT23" t="n">
         <v>21</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" t="n">
         <v>63</v>
       </c>
       <c r="G24" t="n">
-        <v>0.232</v>
+        <v>0.222</v>
       </c>
       <c r="H24" t="n">
         <v>48.4</v>
@@ -4688,10 +4755,10 @@
         <v>37.9</v>
       </c>
       <c r="J24" t="n">
-        <v>87.2</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L24" t="n">
         <v>7</v>
@@ -4700,31 +4767,31 @@
         <v>22.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.312</v>
+        <v>0.311</v>
       </c>
       <c r="O24" t="n">
         <v>16.6</v>
       </c>
       <c r="P24" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="R24" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S24" t="n">
         <v>31.2</v>
       </c>
       <c r="T24" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U24" t="n">
         <v>21.8</v>
       </c>
       <c r="V24" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="W24" t="n">
         <v>9.300000000000001</v>
@@ -4733,7 +4800,7 @@
         <v>4</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Z24" t="n">
         <v>22.5</v>
@@ -4742,10 +4809,10 @@
         <v>20.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.5</v>
+        <v>-10.7</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -4760,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI24" t="n">
         <v>16</v>
@@ -4772,7 +4839,7 @@
         <v>29</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM24" t="n">
         <v>13</v>
@@ -4790,7 +4857,7 @@
         <v>29</v>
       </c>
       <c r="AR24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
         <v>19</v>
@@ -4799,7 +4866,7 @@
         <v>15</v>
       </c>
       <c r="AU24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E25" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" t="n">
         <v>34</v>
       </c>
       <c r="G25" t="n">
-        <v>0.585</v>
+        <v>0.58</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,7 +4937,7 @@
         <v>38.7</v>
       </c>
       <c r="J25" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.463</v>
@@ -4885,28 +4952,28 @@
         <v>0.372</v>
       </c>
       <c r="O25" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P25" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R25" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S25" t="n">
         <v>31.7</v>
       </c>
       <c r="T25" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U25" t="n">
         <v>19.1</v>
       </c>
       <c r="V25" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W25" t="n">
         <v>8.4</v>
@@ -4915,7 +4982,7 @@
         <v>4.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z25" t="n">
         <v>21.9</v>
@@ -4933,19 +5000,19 @@
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ25" t="n">
         <v>12</v>
@@ -4960,7 +5027,7 @@
         <v>4</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
         <v>9</v>
@@ -4987,7 +5054,7 @@
         <v>26</v>
       </c>
       <c r="AW25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" t="n">
         <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.659</v>
+        <v>0.654</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,7 +5119,7 @@
         <v>39.1</v>
       </c>
       <c r="J26" t="n">
-        <v>87</v>
+        <v>86.8</v>
       </c>
       <c r="K26" t="n">
         <v>0.45</v>
@@ -5061,40 +5128,40 @@
         <v>9.4</v>
       </c>
       <c r="M26" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="N26" t="n">
         <v>0.372</v>
       </c>
       <c r="O26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P26" t="n">
         <v>23.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="R26" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="S26" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="T26" t="n">
-        <v>46.4</v>
+        <v>46.2</v>
       </c>
       <c r="U26" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V26" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W26" t="n">
         <v>5.5</v>
       </c>
       <c r="X26" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y26" t="n">
         <v>3.7</v>
@@ -5115,13 +5182,13 @@
         <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH26" t="n">
         <v>10</v>
@@ -5130,10 +5197,10 @@
         <v>5</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
         <v>4</v>
@@ -5142,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO26" t="n">
         <v>7</v>
@@ -5154,10 +5221,10 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -5181,10 +5248,10 @@
         <v>6</v>
       </c>
       <c r="BA26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" t="n">
         <v>28</v>
       </c>
       <c r="F27" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G27" t="n">
-        <v>0.341</v>
+        <v>0.346</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5246,25 +5313,25 @@
         <v>18</v>
       </c>
       <c r="N27" t="n">
-        <v>0.333</v>
+        <v>0.334</v>
       </c>
       <c r="O27" t="n">
         <v>20.7</v>
       </c>
       <c r="P27" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R27" t="n">
         <v>12.1</v>
       </c>
       <c r="S27" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T27" t="n">
-        <v>44.5</v>
+        <v>44.3</v>
       </c>
       <c r="U27" t="n">
         <v>18.9</v>
@@ -5273,7 +5340,7 @@
         <v>15.2</v>
       </c>
       <c r="W27" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X27" t="n">
         <v>3.9</v>
@@ -5282,10 +5349,10 @@
         <v>5.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AB27" t="n">
         <v>100.5</v>
@@ -5306,10 +5373,10 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ27" t="n">
         <v>16</v>
@@ -5333,13 +5400,13 @@
         <v>4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR27" t="n">
         <v>5</v>
       </c>
       <c r="AS27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT27" t="n">
         <v>9</v>
@@ -5348,7 +5415,7 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW27" t="n">
         <v>22</v>
@@ -5357,7 +5424,7 @@
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ27" t="n">
         <v>26</v>
@@ -5366,7 +5433,7 @@
         <v>4</v>
       </c>
       <c r="BB27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC27" t="n">
         <v>22</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" t="n">
         <v>62</v>
       </c>
       <c r="F28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G28" t="n">
-        <v>0.756</v>
+        <v>0.765</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
@@ -5416,25 +5483,25 @@
         <v>40.6</v>
       </c>
       <c r="J28" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.486</v>
+        <v>0.487</v>
       </c>
       <c r="L28" t="n">
         <v>8.5</v>
       </c>
       <c r="M28" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.397</v>
+        <v>0.398</v>
       </c>
       <c r="O28" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P28" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="Q28" t="n">
         <v>0.785</v>
@@ -5443,10 +5510,10 @@
         <v>9.300000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="T28" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U28" t="n">
         <v>25.2</v>
@@ -5461,19 +5528,19 @@
         <v>5.1</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z28" t="n">
         <v>18.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB28" t="n">
         <v>105.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5503,7 +5570,7 @@
         <v>12</v>
       </c>
       <c r="AM28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
@@ -5521,7 +5588,7 @@
         <v>26</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT28" t="n">
         <v>12</v>
@@ -5536,13 +5603,13 @@
         <v>20</v>
       </c>
       <c r="AX28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY28" t="n">
         <v>15</v>
       </c>
       <c r="AZ28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA28" t="n">
         <v>25</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" t="n">
         <v>48</v>
       </c>
       <c r="F29" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" t="n">
-        <v>0.585</v>
+        <v>0.593</v>
       </c>
       <c r="H29" t="n">
         <v>48.7</v>
@@ -5598,7 +5665,7 @@
         <v>36.5</v>
       </c>
       <c r="J29" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K29" t="n">
         <v>0.445</v>
@@ -5607,19 +5674,19 @@
         <v>8.699999999999999</v>
       </c>
       <c r="M29" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O29" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P29" t="n">
         <v>25.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.782</v>
+        <v>0.784</v>
       </c>
       <c r="R29" t="n">
         <v>11.4</v>
@@ -5634,7 +5701,7 @@
         <v>21.2</v>
       </c>
       <c r="V29" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W29" t="n">
         <v>7</v>
@@ -5652,10 +5719,10 @@
         <v>22.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -5676,7 +5743,7 @@
         <v>24</v>
       </c>
       <c r="AJ29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK29" t="n">
         <v>22</v>
@@ -5688,7 +5755,7 @@
         <v>11</v>
       </c>
       <c r="AN29" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AO29" t="n">
         <v>6</v>
@@ -5706,10 +5773,10 @@
         <v>20</v>
       </c>
       <c r="AT29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5718,7 +5785,7 @@
         <v>25</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30" t="n">
         <v>57</v>
       </c>
       <c r="G30" t="n">
-        <v>0.305</v>
+        <v>0.296</v>
       </c>
       <c r="H30" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="J30" t="n">
-        <v>81.09999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L30" t="n">
         <v>6.6</v>
@@ -5792,70 +5859,70 @@
         <v>19.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O30" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P30" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.747</v>
+        <v>0.745</v>
       </c>
       <c r="R30" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S30" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T30" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="U30" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V30" t="n">
         <v>14.6</v>
       </c>
       <c r="W30" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X30" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y30" t="n">
         <v>4.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA30" t="n">
         <v>20.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>-7.2</v>
+        <v>-7.3</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AI30" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ30" t="n">
         <v>25</v>
@@ -5882,13 +5949,13 @@
         <v>22</v>
       </c>
       <c r="AR30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS30" t="n">
         <v>26</v>
       </c>
       <c r="AT30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="n">
         <v>38</v>
       </c>
       <c r="G31" t="n">
-        <v>0.537</v>
+        <v>0.531</v>
       </c>
       <c r="H31" t="n">
         <v>48.9</v>
       </c>
       <c r="I31" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J31" t="n">
-        <v>84.40000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L31" t="n">
         <v>7.9</v>
@@ -5980,28 +6047,28 @@
         <v>15.3</v>
       </c>
       <c r="P31" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q31" t="n">
         <v>0.731</v>
       </c>
       <c r="R31" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S31" t="n">
         <v>31.4</v>
       </c>
       <c r="T31" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U31" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V31" t="n">
         <v>14.7</v>
       </c>
       <c r="W31" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X31" t="n">
         <v>4.6</v>
@@ -6013,37 +6080,37 @@
         <v>20.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
       </c>
       <c r="AE31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ31" t="n">
         <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL31" t="n">
         <v>16</v>
@@ -6058,13 +6125,13 @@
         <v>29</v>
       </c>
       <c r="AP31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ31" t="n">
         <v>25</v>
       </c>
       <c r="AR31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS31" t="n">
         <v>17</v>
@@ -6076,7 +6143,7 @@
         <v>8</v>
       </c>
       <c r="AV31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW31" t="n">
         <v>11</v>
@@ -6094,7 +6161,7 @@
         <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-16-2013-14</t>
+          <t>2014-04-16</t>
         </is>
       </c>
     </row>
